--- a/src/attributions/attributions_saliency_traj_164.xlsx
+++ b/src/attributions/attributions_saliency_traj_164.xlsx
@@ -1004,2847 +1004,2847 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0009668469429016113</v>
+        <v>0.04563140869140625</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6363745927810669</v>
+        <v>1.096789598464966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0910104438662529</v>
+        <v>0.1377836167812347</v>
       </c>
       <c r="D2" t="n">
-        <v>0.141452968120575</v>
+        <v>0.84972083568573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.470829576253891</v>
+        <v>0.2914181351661682</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05584396794438362</v>
+        <v>0.2271082550287247</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1161578074097633</v>
+        <v>0.2787936925888062</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3279450535774231</v>
+        <v>0.1108413860201836</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01652794517576694</v>
+        <v>0.2131906747817993</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02429372817277908</v>
+        <v>0.02230920642614365</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2167064994573593</v>
+        <v>0.9925919771194458</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2517398595809937</v>
+        <v>0.04025467485189438</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1600985825061798</v>
+        <v>0.9757845401763916</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1116627901792526</v>
+        <v>0.1800789088010788</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1759951114654541</v>
+        <v>0.04274730756878853</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0004645809531211853</v>
+        <v>0.2184905707836151</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1956073939800262</v>
+        <v>0.1313358843326569</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02190462499856949</v>
+        <v>0.3774427473545074</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1910723447799683</v>
+        <v>0.05218395590782166</v>
       </c>
       <c r="T2" t="n">
-        <v>0.02641109935939312</v>
+        <v>0.2033009976148605</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01808206178247929</v>
+        <v>0.0003873626701533794</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2378388345241547</v>
+        <v>0.02058491297066212</v>
       </c>
       <c r="W2" t="n">
-        <v>0.202313631772995</v>
+        <v>0.0638061985373497</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04457321017980576</v>
+        <v>0.040902990847826</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08702081441879272</v>
+        <v>0.06740142405033112</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.1903393566608429</v>
+        <v>0.05919899046421051</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03650429844856262</v>
+        <v>0.008042260073125362</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.07821047306060791</v>
+        <v>0.3675180077552795</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.1903215497732162</v>
+        <v>0.133265882730484</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1297188252210617</v>
+        <v>0.1228366121649742</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2948864996433258</v>
+        <v>0.3486691415309906</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2994211316108704</v>
+        <v>0.1967947781085968</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.09641169011592865</v>
+        <v>0.07403081655502319</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.09421960264444351</v>
+        <v>0.08287243545055389</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1217352598905563</v>
+        <v>0.0899311751127243</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.09608675539493561</v>
+        <v>0.1302173584699631</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.048909030854702</v>
+        <v>0.01461950689554214</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.141302764415741</v>
+        <v>0.1544231474399567</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.01066872850060463</v>
+        <v>0.01698348298668861</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01764720864593983</v>
+        <v>0.04726205766201019</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.06758730858564377</v>
+        <v>0.1201903447508812</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.05349879339337349</v>
+        <v>0.2032641023397446</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.1543190777301788</v>
+        <v>0.02276269160211086</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.1496746391057968</v>
+        <v>0.1161784455180168</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.03180369362235069</v>
+        <v>0.03734688460826874</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.2901312708854675</v>
+        <v>0.001142201013863087</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.1977649331092834</v>
+        <v>0.8185243010520935</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.1310874223709106</v>
+        <v>0.10612902790308</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.5928472876548767</v>
+        <v>0.423148900270462</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.3487911224365234</v>
+        <v>0.009705728851258755</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.11546590924263</v>
+        <v>0.1219215095043182</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.3139545023441315</v>
+        <v>0.2481488287448883</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.2594059109687805</v>
+        <v>0.07719914615154266</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.04392190650105476</v>
+        <v>0.07517797499895096</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.2777678966522217</v>
+        <v>0.0430305041372776</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.04192882776260376</v>
+        <v>0.1419186145067215</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0908273383975029</v>
+        <v>0.2983337640762329</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.3289644718170166</v>
+        <v>0.2541697025299072</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.01237062085419893</v>
+        <v>0.3843701481819153</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.06724484264850616</v>
+        <v>0.08208435773849487</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.2584550380706787</v>
+        <v>0.04099898785352707</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01460187509655952</v>
+        <v>0.003893153974786401</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.04556142538785934</v>
+        <v>0.07148221135139465</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.1242866665124893</v>
+        <v>0.05116403102874756</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1259506046772003</v>
+        <v>0.2455229461193085</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.07245968282222748</v>
+        <v>0.07643681019544601</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.2330777049064636</v>
+        <v>0.2814260721206665</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.03579290583729744</v>
+        <v>0.02737709134817123</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.05894406884908676</v>
+        <v>0.001747519942000508</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.05892259627580643</v>
+        <v>0.1031795144081116</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.2890770137310028</v>
+        <v>0.03837891668081284</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.04759006947278976</v>
+        <v>0.01133623905479908</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.2855517268180847</v>
+        <v>0.2117967307567596</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.2086681127548218</v>
+        <v>0.5015757083892822</v>
       </c>
       <c r="BW2" t="n">
-        <v>7.651001214981079e-05</v>
+        <v>0.003530579386278987</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.4177420735359192</v>
+        <v>0.1861132383346558</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.09247392416000366</v>
+        <v>0.1822885572910309</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.004194131121039391</v>
+        <v>0.04536648467183113</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.1026168316602707</v>
+        <v>0.01464954018592834</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.05223236232995987</v>
+        <v>0.04248811304569244</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.04251062124967575</v>
+        <v>0.09362185746431351</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0608789324760437</v>
+        <v>0.02286322042346001</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.03372370451688766</v>
+        <v>0.1700672060251236</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.004916734993457794</v>
+        <v>0.002001161687076092</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.07246903330087662</v>
+        <v>0.09947498142719269</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.07873265445232391</v>
+        <v>0.07011202722787857</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.008164693601429462</v>
+        <v>0.07393791526556015</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.08244732022285461</v>
+        <v>0.07999379932880402</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.1434578746557236</v>
+        <v>0.02752452343702316</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.003260944969952106</v>
+        <v>0.02421711571514606</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.1579993218183517</v>
+        <v>0.1008952409029007</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.007400704547762871</v>
+        <v>0.1909293383359909</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.1087079718708992</v>
+        <v>0.1441642343997955</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.2807366549968719</v>
+        <v>0.05869082361459732</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0008820183575153351</v>
+        <v>0.1764030754566193</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.06169281154870987</v>
+        <v>0.156716600060463</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.3810453712940216</v>
+        <v>0.1286209672689438</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.1500250697135925</v>
+        <v>0.1099125593900681</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.06465783715248108</v>
+        <v>0.003886794205754995</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.04689710959792137</v>
+        <v>0.0008244998753070831</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.01647024601697922</v>
+        <v>0.2011602818965912</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.007399532478302717</v>
+        <v>0.04030198603868484</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.08868483453989029</v>
+        <v>0.1326680779457092</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.1420345604419708</v>
+        <v>0.01536383107304573</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.02540285885334015</v>
+        <v>0.0616968497633934</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.02835173159837723</v>
+        <v>0.07231263071298599</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.1287072002887726</v>
+        <v>0.04036934673786163</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.01790567673742771</v>
+        <v>0.03911801427602768</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.1340715736150742</v>
+        <v>0.1121295318007469</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.03945810720324516</v>
+        <v>0.2923176288604736</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.271510899066925</v>
+        <v>0.0944766104221344</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.1642056256532669</v>
+        <v>0.4306101500988007</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.1107793748378754</v>
+        <v>0.03688774630427361</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.0370388850569725</v>
+        <v>0.1709784865379333</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.3361993730068207</v>
+        <v>0.1168379336595535</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.01749891228973866</v>
+        <v>0.1003834009170532</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0308539904654026</v>
+        <v>0.05524870008230209</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.1444446891546249</v>
+        <v>0.1542006433010101</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.3067765235900879</v>
+        <v>0.01777883432805538</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.03075741231441498</v>
+        <v>0.1837442964315414</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.3813875317573547</v>
+        <v>0.07038047909736633</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.01338709890842438</v>
+        <v>0.1795130670070648</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.06169570237398148</v>
+        <v>0.19969841837883</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.1659302115440369</v>
+        <v>0.01228566095232964</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.1894335746765137</v>
+        <v>0.1510423868894577</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.05693518742918968</v>
+        <v>0.05768522620201111</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.07391540706157684</v>
+        <v>0.1676704734563828</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.08816306293010712</v>
+        <v>0.04851068556308746</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.03281645104289055</v>
+        <v>0.008967895060777664</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.02453651279211044</v>
+        <v>0.2615707814693451</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.006099523976445198</v>
+        <v>0.007411925122141838</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.06855431199073792</v>
+        <v>0.2651809453964233</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.1341052353382111</v>
+        <v>0.07582885026931763</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.04999996349215508</v>
+        <v>0.1238063722848892</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.1018353998661041</v>
+        <v>0.06812210381031036</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.04256072640419006</v>
+        <v>0.0129825659096241</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.06389280408620834</v>
+        <v>0.1142814010381699</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02753744088113308</v>
+        <v>0.07221756130456924</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.08482800424098969</v>
+        <v>0.007075775414705276</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.1026622503995895</v>
+        <v>0.03710011765360832</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.05252989754080772</v>
+        <v>0.08896414190530777</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.002743974328041077</v>
+        <v>0.003065759316086769</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.1155123263597488</v>
+        <v>0.02557144872844219</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.04652920737862587</v>
+        <v>0.009174857288599014</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.1481803059577942</v>
+        <v>0.07434935122728348</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.1356711834669113</v>
+        <v>0.1285195499658585</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.01609924249351025</v>
+        <v>0.1396873295307159</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.1591663360595703</v>
+        <v>0.06311135739088058</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0585489347577095</v>
+        <v>0.06237563863396645</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.1249920874834061</v>
+        <v>0.2481438219547272</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.04536138474941254</v>
+        <v>0.09322158247232437</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.1412359029054642</v>
+        <v>0.04994842410087585</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0353272557258606</v>
+        <v>0.04136321693658829</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.04035740718245506</v>
+        <v>0.03970478475093842</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.05514183640480042</v>
+        <v>0.2135979384183884</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.001112417317926884</v>
+        <v>0.006734257563948631</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.122071884572506</v>
+        <v>0.1129089519381523</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.09079049527645111</v>
+        <v>0.03872780501842499</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.009533468633890152</v>
+        <v>0.048341054469347</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.03491438925266266</v>
+        <v>0.1410334706306458</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.1173954531550407</v>
+        <v>0.03627993911504745</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.03641254454851151</v>
+        <v>0.015047213062644</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.1073261350393295</v>
+        <v>0.02273805066943169</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.02287847176194191</v>
+        <v>0.2080604434013367</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.01883511058986187</v>
+        <v>0.03681528568267822</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.1165875792503357</v>
+        <v>0.06767968833446503</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.1875281631946564</v>
+        <v>0.07190397381782532</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.06904702633619308</v>
+        <v>0.02304466441273689</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.130262091755867</v>
+        <v>0.2240063697099686</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.1034858003258705</v>
+        <v>0.02275238744914532</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.04759090393781662</v>
+        <v>0.05236116424202919</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.2000235915184021</v>
+        <v>0.1300545632839203</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.1888391375541687</v>
+        <v>0.2503049373626709</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0280538834631443</v>
+        <v>0.2985419631004333</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.1871254444122314</v>
+        <v>0.09302860498428345</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.1141140982508659</v>
+        <v>0.003027471713721752</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.007764710113406181</v>
+        <v>0.07275161147117615</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.6429154872894287</v>
+        <v>0.1014668047428131</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.09686826169490814</v>
+        <v>0.3871091306209564</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0110856369137764</v>
+        <v>0.0286218486726284</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.03299436345696449</v>
+        <v>0.06816411763429642</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.01906169578433037</v>
+        <v>0.0143199386075139</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02351945638656616</v>
+        <v>0.01838827878236771</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.08927346765995026</v>
+        <v>0.08506910502910614</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.1705341786146164</v>
+        <v>0.426547110080719</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.01594067737460136</v>
+        <v>0.1188506707549095</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.02214814722537994</v>
+        <v>0.2564392685890198</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.1793959885835648</v>
+        <v>0.01267017796635628</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.09791971743106842</v>
+        <v>0.03405776992440224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001050642575137317</v>
+        <v>0.04402842745184898</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005007599014788866</v>
+        <v>0.6970126032829285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001257114636246115</v>
+        <v>0.04398222640156746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002393036149442196</v>
+        <v>0.505540132522583</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007915212190710008</v>
+        <v>0.19695745408535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008661539759486914</v>
+        <v>0.1890172958374023</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001560278818942606</v>
+        <v>0.01917882263660431</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004267074982635677</v>
+        <v>0.002600144594907761</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002239782916149125</v>
+        <v>0.1165722906589508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0008599973516538739</v>
+        <v>0.0675918310880661</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003202245105057955</v>
+        <v>0.7191820740699768</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001197146717458963</v>
+        <v>0.009618437848985195</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0006937992293387651</v>
+        <v>0.2864601612091064</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001696536666713655</v>
+        <v>0.1418497264385223</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001620638358872384</v>
+        <v>0.1227552965283394</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001464265747927129</v>
+        <v>0.1364140659570694</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001284474390558898</v>
+        <v>0.1314418315887451</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002030011033639312</v>
+        <v>0.1206386238336563</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0006500507006421685</v>
+        <v>0.02123640477657318</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001747382455505431</v>
+        <v>0.1571171432733536</v>
       </c>
       <c r="U3" t="n">
-        <v>9.290455636801198e-05</v>
+        <v>0.01950385794043541</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001312544918619096</v>
+        <v>0.006176160648465157</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00195113371592015</v>
+        <v>0.1204628348350525</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001263413112610579</v>
+        <v>0.002439673990011215</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.0002969840716104954</v>
+        <v>0.1162280142307281</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.001062336144968867</v>
+        <v>0.02644770592451096</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0007973056635819376</v>
+        <v>0.0897788405418396</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001697399711702019</v>
+        <v>0.2022436708211899</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001846377272158861</v>
+        <v>0.04943640902638435</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.000517255044542253</v>
+        <v>0.02547584474086761</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.001067131292074919</v>
+        <v>0.02863536030054092</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.001856005168519914</v>
+        <v>0.0004672445356845856</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0002986971521750093</v>
+        <v>0.02626139670610428</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.001205873908475041</v>
+        <v>0.06454497575759888</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0004670606576837599</v>
+        <v>0.06521680951118469</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.002435200614854693</v>
+        <v>0.05900298058986664</v>
       </c>
       <c r="AK3" t="n">
-        <v>8.681043982505798e-05</v>
+        <v>0.02240652032196522</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0003377632237970829</v>
+        <v>0.1275658756494522</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0006547516095452011</v>
+        <v>0.02723366022109985</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.954692748375237e-05</v>
+        <v>0.03233674168586731</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0004917392507195473</v>
+        <v>0.05128055438399315</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0008534847875125706</v>
+        <v>0.05555131286382675</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0002034679491771385</v>
+        <v>0.01160106249153614</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.001031025080010295</v>
+        <v>0.06349730491638184</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0002352409355808049</v>
+        <v>0.06044744327664375</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.001836056588217616</v>
+        <v>0.0647159218788147</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0009669504943303764</v>
+        <v>0.4821384251117706</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.001134397694841027</v>
+        <v>0.03790062665939331</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.002443302655592561</v>
+        <v>0.3740637004375458</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.001367894350551069</v>
+        <v>0.1609580516815186</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0004522356030065566</v>
+        <v>0.06911389529705048</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0004871443088632077</v>
+        <v>0.1039000004529953</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0005577763076871634</v>
+        <v>0.03438263386487961</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0004243419098202139</v>
+        <v>0.1247348487377167</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.00174459652043879</v>
+        <v>0.02994194626808167</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0001109186559915543</v>
+        <v>0.01093154773116112</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0007899166666902602</v>
+        <v>0.09773367643356323</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.0002738691691774875</v>
+        <v>0.0267430953681469</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0009278354700654745</v>
+        <v>0.224630206823349</v>
       </c>
       <c r="BH3" t="n">
-        <v>9.306075662607327e-05</v>
+        <v>0.007285898551344872</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.002303888788446784</v>
+        <v>0.0144857931882143</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.001186447450891137</v>
+        <v>0.1354509592056274</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0001381338952342048</v>
+        <v>0.09234742820262909</v>
       </c>
       <c r="BL3" t="n">
-        <v>4.69666556455195e-05</v>
+        <v>0.1144068241119385</v>
       </c>
       <c r="BM3" t="n">
-        <v>4.408974200487137e-05</v>
+        <v>0.1972192078828812</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.680233981460333e-05</v>
+        <v>0.03996781632304192</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.001210756250657141</v>
+        <v>0.01927122101187706</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0005877110525034368</v>
+        <v>0.05469628795981407</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.000225705181946978</v>
+        <v>0.03696111217141151</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.001057467306964099</v>
+        <v>0.01393307093530893</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.001327884965576231</v>
+        <v>0.02080685272812843</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.00357310657273e-05</v>
+        <v>0.04049402102828026</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0008652049582451582</v>
+        <v>0.06314069777727127</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.001156746409833431</v>
+        <v>0.2695063948631287</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0001064079842763022</v>
+        <v>0.08735604584217072</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.001204049098305404</v>
+        <v>0.09810252487659454</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.0006416186224669218</v>
+        <v>0.01444942690432072</v>
       </c>
       <c r="BZ3" t="n">
-        <v>5.189001967664808e-06</v>
+        <v>0.02493433654308319</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0003484904882498085</v>
+        <v>0.02198269031941891</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0001507167762611061</v>
+        <v>0.05301452800631523</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0001416345767211169</v>
+        <v>0.06786920875310898</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0001699809217825532</v>
+        <v>0.005795056466013193</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0008731574052944779</v>
+        <v>0.09992516040802002</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0005282977363094687</v>
+        <v>0.05599520355463028</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0008424407569691539</v>
+        <v>0.08934774249792099</v>
       </c>
       <c r="CH3" t="n">
-        <v>5.121021240483969e-05</v>
+        <v>0.02764795534312725</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.000537155254278332</v>
+        <v>0.02728908509016037</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0001713467936497182</v>
+        <v>0.04719652235507965</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0001223398139700294</v>
+        <v>0.01180538907647133</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0003378589171916246</v>
+        <v>0.03012441843748093</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.001447830582037568</v>
+        <v>0.1849649697542191</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0008337961044162512</v>
+        <v>0.02260201424360275</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.001065738964825869</v>
+        <v>0.04564244300127029</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.001039093942381442</v>
+        <v>0.0002348907291889191</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0006075031706131995</v>
+        <v>0.0008167605847120285</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.00124775234144181</v>
+        <v>0.08226881921291351</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.001652871491387486</v>
+        <v>0.1532845050096512</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0003521573962643743</v>
+        <v>0.1892969757318497</v>
       </c>
       <c r="CU3" t="n">
-        <v>1.281739241676405e-05</v>
+        <v>0.01097350753843784</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0002347661647945642</v>
+        <v>0.008110192604362965</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.0009719529771246016</v>
+        <v>0.1229444369673729</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.0003352838102728128</v>
+        <v>0.05417012423276901</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0005707605741918087</v>
+        <v>0.1175237074494362</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0002515455998945981</v>
+        <v>0.001193266361951828</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0005915227229706943</v>
+        <v>0.0350867472589016</v>
       </c>
       <c r="DB3" t="n">
-        <v>8.775854075793177e-05</v>
+        <v>0.03875993564724922</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0001855912269093096</v>
+        <v>0.005534905008971691</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0001102931491914205</v>
+        <v>0.01700208894908428</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0006941774045117199</v>
+        <v>0.1229123771190643</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.001061549410223961</v>
+        <v>0.06470459699630737</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.001465696608647704</v>
+        <v>0.07817430794239044</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.0007217982201837003</v>
+        <v>0.3659254908561707</v>
       </c>
       <c r="DI3" t="n">
-        <v>5.084728763904423e-05</v>
+        <v>0.2609994411468506</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.001288193976506591</v>
+        <v>0.03475793451070786</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.0005787094705738127</v>
+        <v>0.1012722700834274</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.000385394087061286</v>
+        <v>0.1012678369879723</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.001759137958288193</v>
+        <v>0.03404206782579422</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.001081023481674492</v>
+        <v>0.01536556333303452</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.001739260624162853</v>
+        <v>0.02976873517036438</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0008561444701626897</v>
+        <v>0.09716939181089401</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.002320324070751667</v>
+        <v>0.05370662361383438</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.001216534175910056</v>
+        <v>0.02966328337788582</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0005130099016241729</v>
+        <v>0.04424579069018364</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.000382785772671923</v>
+        <v>0.1256497502326965</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.001109435805119574</v>
+        <v>0.05784832313656807</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001461012754589319</v>
+        <v>0.09472007304430008</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0006043282337486744</v>
+        <v>0.06320615857839584</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.001065672724507749</v>
+        <v>0.0004430246772244573</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0005051096086390316</v>
+        <v>0.091022789478302</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0009790542535483837</v>
+        <v>0.03622442111372948</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.001128144911490381</v>
+        <v>0.02554649859666824</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0008493589702993631</v>
+        <v>0.02410737425088882</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001275622751563787</v>
+        <v>0.02376266568899155</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0005646240897476673</v>
+        <v>0.04872915521264076</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.000438490038504824</v>
+        <v>0.00511460192501545</v>
       </c>
       <c r="EF3" t="n">
-        <v>6.337373633868992e-05</v>
+        <v>0.008646603673696518</v>
       </c>
       <c r="EG3" t="n">
-        <v>9.921457967720926e-05</v>
+        <v>0.1288512051105499</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0006337994709610939</v>
+        <v>0.07600138336420059</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.0002897329686675221</v>
+        <v>0.09200678765773773</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0001046916877385229</v>
+        <v>0.1610211133956909</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.001487350789830089</v>
+        <v>0.06742635369300842</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0002893237397074699</v>
+        <v>0.02133334241807461</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0004665029991883785</v>
+        <v>0.05008838698267937</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0009995627915486693</v>
+        <v>0.009910508058965206</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.00103730580303818</v>
+        <v>0.05304949730634689</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.0006011598161421716</v>
+        <v>0.1558009684085846</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.001327789155766368</v>
+        <v>0.1811597794294357</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0004453950386960059</v>
+        <v>0.08359692990779877</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0003267418360337615</v>
+        <v>0.1164070218801498</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0009078270522877574</v>
+        <v>0.2064667195081711</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0003481111489236355</v>
+        <v>0.04236692190170288</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0001687921467237175</v>
+        <v>0.09631176292896271</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0001055859756888822</v>
+        <v>0.04473572969436646</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0002584550529718399</v>
+        <v>0.01552953571081161</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.001312799751758575</v>
+        <v>0.1169831454753876</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0004380379396025091</v>
+        <v>0.04578744992613792</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0007991311140358448</v>
+        <v>0.09987251460552216</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0003058518341276795</v>
+        <v>0.0209341011941433</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.0006877438863739371</v>
+        <v>0.03029565140604973</v>
       </c>
       <c r="FD3" t="n">
-        <v>3.376930544618517e-05</v>
+        <v>0.04856652021408081</v>
       </c>
       <c r="FE3" t="n">
-        <v>9.286599379265681e-05</v>
+        <v>0.004499603062868118</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0004335798730608076</v>
+        <v>0.02760989032685757</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0002433236222714186</v>
+        <v>0.02364814467728138</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.002742945682257414</v>
+        <v>0.001677745254710317</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0002714329748414457</v>
+        <v>0.08232280611991882</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.0008573622326366603</v>
+        <v>0.1282955855131149</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0008278416353277862</v>
+        <v>0.02483081817626953</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.001359242596663535</v>
+        <v>0.09475995600223541</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.001179569168016315</v>
+        <v>0.0216915849596262</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.002878549275919795</v>
+        <v>0.04103619232773781</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.001377262291498482</v>
+        <v>0.03825772181153297</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0007202359265647829</v>
+        <v>0.04386505484580994</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.000287703238427639</v>
+        <v>0.2026047110557556</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.001053841901011765</v>
+        <v>0.1345594078302383</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.0003681093512568623</v>
+        <v>0.1031057089567184</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.001058337744325399</v>
+        <v>0.06505148112773895</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0006701233796775341</v>
+        <v>0.0501430407166481</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.002606944413855672</v>
+        <v>0.02731865830719471</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.001667690114118159</v>
+        <v>0.1478106528520584</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0006040876032784581</v>
+        <v>0.04253671690821648</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0008813933236524463</v>
+        <v>0.1545687019824982</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0001899983617477119</v>
+        <v>0.007934821769595146</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.000392771209590137</v>
+        <v>0.008744250051677227</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0005981085705570877</v>
+        <v>0.08013848215341568</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.001419553183950484</v>
+        <v>0.03523493930697441</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0006903512985445559</v>
+        <v>0.06960069388151169</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0001164791683549993</v>
+        <v>0.2176606953144073</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.002156695583835244</v>
+        <v>0.06123024225234985</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0004929465940222144</v>
+        <v>0.07457902282476425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.608305294415914e-05</v>
+        <v>0.1350068151950836</v>
       </c>
       <c r="B4" t="n">
-        <v>3.222191480745096e-06</v>
+        <v>0.1072297319769859</v>
       </c>
       <c r="C4" t="n">
-        <v>2.104005397995934e-05</v>
+        <v>0.04639479145407677</v>
       </c>
       <c r="D4" t="n">
-        <v>1.573717236169614e-05</v>
+        <v>0.2090467810630798</v>
       </c>
       <c r="E4" t="n">
-        <v>2.219817542936653e-05</v>
+        <v>0.03893950954079628</v>
       </c>
       <c r="F4" t="n">
-        <v>1.458342558180448e-05</v>
+        <v>0.05103184655308723</v>
       </c>
       <c r="G4" t="n">
-        <v>4.351933057478163e-06</v>
+        <v>0.005612408742308617</v>
       </c>
       <c r="H4" t="n">
-        <v>1.942743256222457e-05</v>
+        <v>0.01293420046567917</v>
       </c>
       <c r="I4" t="n">
-        <v>9.623770893085748e-06</v>
+        <v>0.1003854721784592</v>
       </c>
       <c r="J4" t="n">
-        <v>5.733755642722826e-06</v>
+        <v>0.03916066884994507</v>
       </c>
       <c r="K4" t="n">
-        <v>4.987882675777655e-06</v>
+        <v>0.007992193102836609</v>
       </c>
       <c r="L4" t="n">
-        <v>3.635216853581369e-05</v>
+        <v>0.1043324023485184</v>
       </c>
       <c r="M4" t="n">
-        <v>6.089979251555633e-06</v>
+        <v>0.1335689574480057</v>
       </c>
       <c r="N4" t="n">
-        <v>1.336571858701063e-05</v>
+        <v>0.1046096235513687</v>
       </c>
       <c r="O4" t="n">
-        <v>5.89919181948062e-06</v>
+        <v>0.0885576605796814</v>
       </c>
       <c r="P4" t="n">
-        <v>6.383696472767042e-06</v>
+        <v>0.003624034579843283</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.598713404557202e-06</v>
+        <v>0.01543380506336689</v>
       </c>
       <c r="R4" t="n">
-        <v>2.219255839008838e-05</v>
+        <v>0.08683112263679504</v>
       </c>
       <c r="S4" t="n">
-        <v>7.746880328340922e-07</v>
+        <v>0.09866833686828613</v>
       </c>
       <c r="T4" t="n">
-        <v>1.005958984023891e-05</v>
+        <v>0.05122131109237671</v>
       </c>
       <c r="U4" t="n">
-        <v>3.208999487469555e-06</v>
+        <v>0.003771640826016665</v>
       </c>
       <c r="V4" t="n">
-        <v>1.002226872515166e-05</v>
+        <v>0.05157266184687614</v>
       </c>
       <c r="W4" t="n">
-        <v>2.72092529485235e-05</v>
+        <v>0.1739535182714462</v>
       </c>
       <c r="X4" t="n">
-        <v>1.634113141335547e-05</v>
+        <v>0.009894592687487602</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.854348051390843e-06</v>
+        <v>0.02626276388764381</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.263442290015519e-06</v>
+        <v>0.09014668315649033</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.022603206976783e-06</v>
+        <v>0.002776183653622866</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.276139295849134e-06</v>
+        <v>0.02467181906104088</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.06007337308256e-05</v>
+        <v>0.01614044047892094</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.487482495576842e-05</v>
+        <v>0.0123977605253458</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.909489037643652e-05</v>
+        <v>0.06894674897193909</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.568474767234875e-06</v>
+        <v>0.06704583019018173</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.310693824052578e-05</v>
+        <v>0.03949901834130287</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.015731413644971e-05</v>
+        <v>0.04343079403042793</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.199300251959357e-05</v>
+        <v>0.03582164645195007</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.660328032623511e-06</v>
+        <v>0.02661591023206711</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.788318508668453e-06</v>
+        <v>0.002761261537671089</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.015041016216855e-05</v>
+        <v>0.01356632448732853</v>
       </c>
       <c r="AM4" t="n">
-        <v>3.37573692377191e-06</v>
+        <v>0.03881538286805153</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.942463541126926e-06</v>
+        <v>0.06312648206949234</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.151640041527571e-06</v>
+        <v>0.005410423967987299</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.297097514907364e-05</v>
+        <v>0.0372820645570755</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.082554899767274e-05</v>
+        <v>0.03299298137426376</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.900066308735404e-07</v>
+        <v>0.0003267470747232437</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.271460966265295e-06</v>
+        <v>0.02376743778586388</v>
       </c>
       <c r="AT4" t="n">
-        <v>5.992573278490454e-06</v>
+        <v>0.01657783985137939</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.147039165516617e-05</v>
+        <v>0.01820515841245651</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.991017936437856e-06</v>
+        <v>0.04618962481617928</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.085516138729872e-07</v>
+        <v>0.1561000794172287</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.285573469242081e-06</v>
+        <v>0.04890421777963638</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.425799023825675e-06</v>
+        <v>0.1886707991361618</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.258820884686429e-05</v>
+        <v>0.02225272729992867</v>
       </c>
       <c r="BA4" t="n">
-        <v>3.614213710534386e-06</v>
+        <v>0.05476661399006844</v>
       </c>
       <c r="BB4" t="n">
-        <v>4.025016551167937e-07</v>
+        <v>0.07565037906169891</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.744108703860547e-05</v>
+        <v>0.08123311400413513</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.71406445588218e-05</v>
+        <v>0.04885252192616463</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.531718226033263e-05</v>
+        <v>0.03195073083043098</v>
       </c>
       <c r="BF4" t="n">
-        <v>7.893588190199807e-06</v>
+        <v>0.05562134459614754</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.011199583444977e-05</v>
+        <v>0.09536571055650711</v>
       </c>
       <c r="BH4" t="n">
-        <v>5.214015800447669e-06</v>
+        <v>0.1358120739459991</v>
       </c>
       <c r="BI4" t="n">
-        <v>6.718474651279394e-06</v>
+        <v>0.1181898936629295</v>
       </c>
       <c r="BJ4" t="n">
-        <v>4.360413186077494e-06</v>
+        <v>0.0210845097899437</v>
       </c>
       <c r="BK4" t="n">
-        <v>4.088188688911032e-06</v>
+        <v>0.01141193695366383</v>
       </c>
       <c r="BL4" t="n">
-        <v>5.938446975051193e-06</v>
+        <v>0.1367576122283936</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.055062693922082e-05</v>
+        <v>0.07011280953884125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.531632187834475e-05</v>
+        <v>0.02521568350493908</v>
       </c>
       <c r="BO4" t="n">
-        <v>4.72993815492373e-06</v>
+        <v>0.05207694321870804</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.777894223982003e-06</v>
+        <v>0.005400348454713821</v>
       </c>
       <c r="BQ4" t="n">
-        <v>8.956908459367696e-08</v>
+        <v>0.02279438637197018</v>
       </c>
       <c r="BR4" t="n">
-        <v>8.423918188782409e-06</v>
+        <v>0.03951537236571312</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.242890448338585e-05</v>
+        <v>0.05731638520956039</v>
       </c>
       <c r="BT4" t="n">
-        <v>7.667517820664216e-06</v>
+        <v>0.04184234142303467</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.782278443191899e-06</v>
+        <v>0.127328559756279</v>
       </c>
       <c r="BV4" t="n">
-        <v>6.014039968249563e-07</v>
+        <v>0.001845635240897536</v>
       </c>
       <c r="BW4" t="n">
-        <v>5.259750196273671e-06</v>
+        <v>0.06856054067611694</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.38596328724816e-06</v>
+        <v>0.09754815697669983</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.170913856185507e-05</v>
+        <v>0.08580843359231949</v>
       </c>
       <c r="BZ4" t="n">
-        <v>8.461416655336507e-06</v>
+        <v>0.001528239576146007</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.080923357221764e-05</v>
+        <v>0.06454680860042572</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.767467438185122e-06</v>
+        <v>0.0605190321803093</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.117319879995193e-05</v>
+        <v>0.06123669445514679</v>
       </c>
       <c r="CD4" t="n">
-        <v>4.165995505900355e-06</v>
+        <v>0.006346903741359711</v>
       </c>
       <c r="CE4" t="n">
-        <v>5.631836302200099e-06</v>
+        <v>0.007284368854016066</v>
       </c>
       <c r="CF4" t="n">
-        <v>4.804016953130485e-07</v>
+        <v>0.0189762320369482</v>
       </c>
       <c r="CG4" t="n">
-        <v>6.073438271414489e-06</v>
+        <v>0.05531957373023033</v>
       </c>
       <c r="CH4" t="n">
-        <v>8.309716577059589e-06</v>
+        <v>0.02446971647441387</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.970441871890216e-06</v>
+        <v>0.007235078606754541</v>
       </c>
       <c r="CJ4" t="n">
-        <v>6.876628503960092e-06</v>
+        <v>0.04154954105615616</v>
       </c>
       <c r="CK4" t="n">
-        <v>1.033126068250567e-06</v>
+        <v>0.01432288251817226</v>
       </c>
       <c r="CL4" t="n">
-        <v>2.816075038936106e-06</v>
+        <v>0.005034275818616152</v>
       </c>
       <c r="CM4" t="n">
-        <v>1.600405812496319e-05</v>
+        <v>0.1223005950450897</v>
       </c>
       <c r="CN4" t="n">
-        <v>3.475341509329155e-05</v>
+        <v>0.06261507421731949</v>
       </c>
       <c r="CO4" t="n">
-        <v>4.068575435667299e-06</v>
+        <v>0.03350240364670753</v>
       </c>
       <c r="CP4" t="n">
-        <v>4.885976522928104e-06</v>
+        <v>0.1227125525474548</v>
       </c>
       <c r="CQ4" t="n">
-        <v>5.137992957315873e-06</v>
+        <v>0.1146849021315575</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.068833055091091e-05</v>
+        <v>0.08144009113311768</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.916429027915001e-06</v>
+        <v>0.007941866293549538</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.276997045351891e-05</v>
+        <v>0.007582317106425762</v>
       </c>
       <c r="CU4" t="n">
-        <v>4.348025868239347e-06</v>
+        <v>0.1402387320995331</v>
       </c>
       <c r="CV4" t="n">
-        <v>4.522789822658524e-06</v>
+        <v>0.00916017685085535</v>
       </c>
       <c r="CW4" t="n">
-        <v>2.736283704507514e-06</v>
+        <v>0.01087619923055172</v>
       </c>
       <c r="CX4" t="n">
-        <v>3.195034423697507e-07</v>
+        <v>0.04047822207212448</v>
       </c>
       <c r="CY4" t="n">
-        <v>4.390922185848467e-06</v>
+        <v>0.04413653537631035</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.063587205862859e-05</v>
+        <v>0.01435704529285431</v>
       </c>
       <c r="DA4" t="n">
-        <v>4.358226760814432e-06</v>
+        <v>0.007245465647429228</v>
       </c>
       <c r="DB4" t="n">
-        <v>7.386041943391319e-06</v>
+        <v>0.02977976202964783</v>
       </c>
       <c r="DC4" t="n">
-        <v>3.525406100379769e-08</v>
+        <v>0.03684159740805626</v>
       </c>
       <c r="DD4" t="n">
-        <v>3.243786750317668e-06</v>
+        <v>0.001501369755715132</v>
       </c>
       <c r="DE4" t="n">
-        <v>1.052531661116518e-05</v>
+        <v>0.05997473001480103</v>
       </c>
       <c r="DF4" t="n">
-        <v>9.237600352207664e-06</v>
+        <v>0.06367951631546021</v>
       </c>
       <c r="DG4" t="n">
-        <v>4.830802208743989e-05</v>
+        <v>0.2490914613008499</v>
       </c>
       <c r="DH4" t="n">
-        <v>2.451596810715273e-05</v>
+        <v>0.03057521395385265</v>
       </c>
       <c r="DI4" t="n">
-        <v>6.731261237291619e-06</v>
+        <v>0.005449283868074417</v>
       </c>
       <c r="DJ4" t="n">
-        <v>4.073144737049006e-05</v>
+        <v>0.2013822048902512</v>
       </c>
       <c r="DK4" t="n">
-        <v>9.514875273453072e-06</v>
+        <v>0.07819957286119461</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.754596789600328e-05</v>
+        <v>0.0149874584749341</v>
       </c>
       <c r="DM4" t="n">
-        <v>2.121030775015242e-06</v>
+        <v>0.06553739309310913</v>
       </c>
       <c r="DN4" t="n">
-        <v>7.227808055176865e-06</v>
+        <v>0.03265171498060226</v>
       </c>
       <c r="DO4" t="n">
-        <v>1.669898847467266e-05</v>
+        <v>0.1026069223880768</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.232090926350793e-05</v>
+        <v>0.02477545663714409</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.460631028749049e-05</v>
+        <v>0.05194320902228355</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.198711288452614e-06</v>
+        <v>0.05250301957130432</v>
       </c>
       <c r="DS4" t="n">
-        <v>4.124092811252922e-06</v>
+        <v>0.047026626765728</v>
       </c>
       <c r="DT4" t="n">
-        <v>2.787303401419194e-06</v>
+        <v>0.01065047644078732</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.164430250355508e-05</v>
+        <v>0.005638394504785538</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.390855686622672e-06</v>
+        <v>0.02527749352157116</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.01453051684075e-05</v>
+        <v>0.1241918578743935</v>
       </c>
       <c r="DX4" t="n">
-        <v>2.05061114684213e-05</v>
+        <v>0.02170117385685444</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.67162965630996e-06</v>
+        <v>0.06274969130754471</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3.032903350685956e-06</v>
+        <v>0.1055909767746925</v>
       </c>
       <c r="EA4" t="n">
-        <v>5.05389652971644e-06</v>
+        <v>0.02182094566524029</v>
       </c>
       <c r="EB4" t="n">
-        <v>8.60241379996296e-06</v>
+        <v>0.01164775714278221</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.357403652946232e-05</v>
+        <v>0.09137313067913055</v>
       </c>
       <c r="ED4" t="n">
-        <v>1.358831923425896e-05</v>
+        <v>0.05569354444742203</v>
       </c>
       <c r="EE4" t="n">
-        <v>6.68700067762984e-06</v>
+        <v>0.01976034231483936</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.659709596424364e-06</v>
+        <v>0.0179789662361145</v>
       </c>
       <c r="EG4" t="n">
-        <v>8.635333870188333e-07</v>
+        <v>0.0001473155571147799</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.851049197895918e-06</v>
+        <v>0.1329705715179443</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.14267031676718e-05</v>
+        <v>0.0349569134414196</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.033365151670296e-06</v>
+        <v>0.02817815914750099</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.800188874767628e-05</v>
+        <v>0.0176098644733429</v>
       </c>
       <c r="EL4" t="n">
-        <v>2.726644879658124e-06</v>
+        <v>0.007760494016110897</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.700943698779156e-06</v>
+        <v>0.01137489452958107</v>
       </c>
       <c r="EN4" t="n">
-        <v>4.687867203756468e-06</v>
+        <v>0.004947206936776638</v>
       </c>
       <c r="EO4" t="n">
-        <v>8.885428542271256e-06</v>
+        <v>0.03685460612177849</v>
       </c>
       <c r="EP4" t="n">
-        <v>6.822590876254253e-06</v>
+        <v>0.06358429789543152</v>
       </c>
       <c r="EQ4" t="n">
-        <v>8.579360837757122e-06</v>
+        <v>0.05923434719443321</v>
       </c>
       <c r="ER4" t="n">
-        <v>8.494143003190402e-06</v>
+        <v>0.03654922172427177</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.826360062295862e-06</v>
+        <v>0.06374496966600418</v>
       </c>
       <c r="ET4" t="n">
-        <v>8.382685336982831e-07</v>
+        <v>0.08220656961202621</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.964736611625995e-06</v>
+        <v>0.1070677787065506</v>
       </c>
       <c r="EV4" t="n">
-        <v>9.978810339816846e-06</v>
+        <v>0.06511501222848892</v>
       </c>
       <c r="EW4" t="n">
-        <v>3.16468481287302e-06</v>
+        <v>0.0646512359380722</v>
       </c>
       <c r="EX4" t="n">
-        <v>3.909970928361872e-06</v>
+        <v>0.02452168613672256</v>
       </c>
       <c r="EY4" t="n">
-        <v>5.258430519461399e-06</v>
+        <v>0.01194504741579294</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1.120282149713603e-06</v>
+        <v>0.02719403244554996</v>
       </c>
       <c r="FA4" t="n">
-        <v>5.856794814462774e-06</v>
+        <v>0.06965144723653793</v>
       </c>
       <c r="FB4" t="n">
-        <v>5.696074367733672e-06</v>
+        <v>0.01582301966845989</v>
       </c>
       <c r="FC4" t="n">
-        <v>6.868297987239202e-06</v>
+        <v>0.01451881695538759</v>
       </c>
       <c r="FD4" t="n">
-        <v>5.895012691325974e-06</v>
+        <v>0.04464258626103401</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.061788109131157e-06</v>
+        <v>0.03954827785491943</v>
       </c>
       <c r="FF4" t="n">
-        <v>1.534517195977969e-06</v>
+        <v>0.01442384533584118</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.856669041444547e-05</v>
+        <v>0.03160756453871727</v>
       </c>
       <c r="FH4" t="n">
-        <v>2.040557592408732e-05</v>
+        <v>0.07661046087741852</v>
       </c>
       <c r="FI4" t="n">
-        <v>2.562134795880411e-06</v>
+        <v>0.08809999376535416</v>
       </c>
       <c r="FJ4" t="n">
-        <v>7.400366939691594e-06</v>
+        <v>0.1080838069319725</v>
       </c>
       <c r="FK4" t="n">
-        <v>1.05871440609917e-05</v>
+        <v>0.06770667433738708</v>
       </c>
       <c r="FL4" t="n">
-        <v>7.489303698093863e-06</v>
+        <v>0.0790383368730545</v>
       </c>
       <c r="FM4" t="n">
-        <v>2.750144631136209e-05</v>
+        <v>0.04609611257910728</v>
       </c>
       <c r="FN4" t="n">
-        <v>7.127770459192107e-06</v>
+        <v>0.06357582658529282</v>
       </c>
       <c r="FO4" t="n">
-        <v>2.134184796886984e-06</v>
+        <v>0.06192958727478981</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.852275818237104e-05</v>
+        <v>0.1632538735866547</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1.351586888631573e-06</v>
+        <v>0.05438448488712311</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.141722350439522e-05</v>
+        <v>0.2166438102722168</v>
       </c>
       <c r="FS4" t="n">
-        <v>2.010461503232364e-05</v>
+        <v>0.03062894754111767</v>
       </c>
       <c r="FT4" t="n">
-        <v>6.014003247400979e-06</v>
+        <v>0.08114732801914215</v>
       </c>
       <c r="FU4" t="n">
-        <v>1.464542856410844e-05</v>
+        <v>0.1029736325144768</v>
       </c>
       <c r="FV4" t="n">
-        <v>6.288322765612975e-06</v>
+        <v>0.1076950952410698</v>
       </c>
       <c r="FW4" t="n">
-        <v>1.565899947308935e-05</v>
+        <v>0.008110920898616314</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.609881655895151e-05</v>
+        <v>0.01842176914215088</v>
       </c>
       <c r="FY4" t="n">
-        <v>2.061393206531648e-05</v>
+        <v>0.0282228346914053</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.246974989044247e-05</v>
+        <v>0.02045760490000248</v>
       </c>
       <c r="GA4" t="n">
-        <v>2.345361644984223e-05</v>
+        <v>0.06110634654760361</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.16749879452982e-05</v>
+        <v>0.02707968093454838</v>
       </c>
       <c r="GC4" t="n">
-        <v>1.51265940075973e-05</v>
+        <v>0.2118556201457977</v>
       </c>
       <c r="GD4" t="n">
-        <v>8.345299647771753e-06</v>
+        <v>0.09297937154769897</v>
       </c>
       <c r="GE4" t="n">
-        <v>3.04163677355973e-07</v>
+        <v>0.1705043017864227</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.426929247827502e-05</v>
+        <v>0.03192676603794098</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.411427911079954e-05</v>
+        <v>0.05359598249197006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0003048191429115832</v>
+        <v>0.009849888272583485</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0002299273037351668</v>
+        <v>0.008576283231377602</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003254407201893628</v>
+        <v>0.00053892977302894</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0004626493901014328</v>
+        <v>0.004370455630123615</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002658983285073191</v>
+        <v>0.01233171857893467</v>
       </c>
       <c r="F5" t="n">
-        <v>1.734341822157148e-06</v>
+        <v>0.0154711389914155</v>
       </c>
       <c r="G5" t="n">
-        <v>9.254949691239744e-05</v>
+        <v>0.006834227126091719</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001026788086164743</v>
+        <v>0.001190570183098316</v>
       </c>
       <c r="I5" t="n">
-        <v>2.106428109982517e-05</v>
+        <v>0.003872605273500085</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002885101130232215</v>
+        <v>0.004920254927128553</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001989508746191859</v>
+        <v>0.000945231644436717</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004203316057100892</v>
+        <v>0.000575357349589467</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001821461628424004</v>
+        <v>0.01151173561811447</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0002325866080354899</v>
+        <v>0.0089511564001441</v>
       </c>
       <c r="O5" t="n">
-        <v>0.000204152922378853</v>
+        <v>0.004307996481657028</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0002217907749582082</v>
+        <v>0.00384126347489655</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0002214663691120222</v>
+        <v>0.01124398224055767</v>
       </c>
       <c r="R5" t="n">
-        <v>8.481822442263365e-05</v>
+        <v>8.597742998972535e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>4.769867518916726e-05</v>
+        <v>0.000973160145804286</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0001261499855900183</v>
+        <v>0.003045822493731976</v>
       </c>
       <c r="U5" t="n">
-        <v>8.535659435437992e-05</v>
+        <v>0.001568727311678231</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0001816383592085913</v>
+        <v>0.005188535898923874</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0002526146126911044</v>
+        <v>0.003094321116805077</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0001416723534930497</v>
+        <v>0.004805471748113632</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.818773494567722e-05</v>
+        <v>0.00455162301659584</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.154433554504067e-05</v>
+        <v>0.003404267597943544</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0002968483022414148</v>
+        <v>0.005331678781658411</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.323804649990052e-05</v>
+        <v>0.003905432531610131</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0002132916270056739</v>
+        <v>0.00547038484364748</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0001041479335981421</v>
+        <v>0.00277957646176219</v>
       </c>
       <c r="AE5" t="n">
-        <v>9.974229033105075e-05</v>
+        <v>0.005850781686604023</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0001924686075653881</v>
+        <v>2.337689511477947e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0001901176001410931</v>
+        <v>0.002177548827603459</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.979603494983166e-05</v>
+        <v>0.007112836930900812</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0003046098863705993</v>
+        <v>0.0002652557159308344</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.240308771841228e-05</v>
+        <v>0.003001643344759941</v>
       </c>
       <c r="AK5" t="n">
-        <v>3.921390452887863e-05</v>
+        <v>0.001630868297070265</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.515053347451612e-05</v>
+        <v>0.002260359702631831</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.02276642085053e-05</v>
+        <v>0.001566717051900923</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.175277429865673e-05</v>
+        <v>0.00189509114716202</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0001311202940996736</v>
+        <v>0.003062876639887691</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0001456547906855121</v>
+        <v>0.003078498644754291</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8.191833330783993e-05</v>
+        <v>0.0007994202896952629</v>
       </c>
       <c r="AR5" t="n">
-        <v>8.802887896308675e-05</v>
+        <v>0.002438178053125739</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.345004759263247e-05</v>
+        <v>0.005110878497362137</v>
       </c>
       <c r="AT5" t="n">
-        <v>7.623394776601344e-05</v>
+        <v>0.00665311049669981</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.03523653303273e-05</v>
+        <v>0.008466449566185474</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.091738810529932e-05</v>
+        <v>0.004309528507292271</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0003351827326696366</v>
+        <v>0.001343008130788803</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0002520324196666479</v>
+        <v>0.01804013550281525</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0001676628889981657</v>
+        <v>0.01282813400030136</v>
       </c>
       <c r="AZ5" t="n">
-        <v>7.964449650899041e-06</v>
+        <v>0.0002663345076143742</v>
       </c>
       <c r="BA5" t="n">
-        <v>9.037595009431243e-05</v>
+        <v>0.004670640453696251</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.341174513276201e-05</v>
+        <v>0.003773213597014546</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0003135398728772998</v>
+        <v>0.0006566717056557536</v>
       </c>
       <c r="BD5" t="n">
-        <v>9.582762868376449e-05</v>
+        <v>0.003489373251795769</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0001081585069186985</v>
+        <v>0.0006426771869882941</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.37264014990069e-05</v>
+        <v>0.00187158293556422</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0001227191532962024</v>
+        <v>0.00357279134914279</v>
       </c>
       <c r="BH5" t="n">
-        <v>6.179370393510908e-05</v>
+        <v>0.003226537257432938</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.000164490716997534</v>
+        <v>0.003069190308451653</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0001309275103267282</v>
+        <v>0.0003918291768059134</v>
       </c>
       <c r="BK5" t="n">
-        <v>3.125094372080639e-05</v>
+        <v>0.00137978489510715</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.988256190088578e-05</v>
+        <v>0.003171157790347934</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0001810851827031001</v>
+        <v>0.0002574351092334837</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0001165092835435644</v>
+        <v>0.002061719773337245</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0002270554396091029</v>
+        <v>0.00363068631850183</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0001044862801791169</v>
+        <v>0.003724547801539302</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.000119000396807678</v>
+        <v>0.00457803113386035</v>
       </c>
       <c r="BR5" t="n">
-        <v>7.06554146745475e-06</v>
+        <v>0.001463634194806218</v>
       </c>
       <c r="BS5" t="n">
-        <v>5.303610669216141e-05</v>
+        <v>0.004690430127084255</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0001104866896639578</v>
+        <v>0.0001705605536699295</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0001050404971465468</v>
+        <v>0.006564575713127851</v>
       </c>
       <c r="BV5" t="n">
-        <v>3.046770871151239e-05</v>
+        <v>0.003869676031172276</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.042312669596868e-05</v>
+        <v>0.001570610562339425</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0001668812910793349</v>
+        <v>0.0001410329714417458</v>
       </c>
       <c r="BY5" t="n">
-        <v>9.51701349549694e-06</v>
+        <v>0.005157965701073408</v>
       </c>
       <c r="BZ5" t="n">
-        <v>7.068957347655669e-05</v>
+        <v>0.003565752180293202</v>
       </c>
       <c r="CA5" t="n">
-        <v>4.930771319777705e-05</v>
+        <v>0.004910250660032034</v>
       </c>
       <c r="CB5" t="n">
-        <v>4.556162457447499e-05</v>
+        <v>0.003561172634363174</v>
       </c>
       <c r="CC5" t="n">
-        <v>4.904100205749273e-05</v>
+        <v>0.002829623874276876</v>
       </c>
       <c r="CD5" t="n">
-        <v>7.84259827923961e-05</v>
+        <v>0.001058587222360075</v>
       </c>
       <c r="CE5" t="n">
-        <v>5.952632636763155e-05</v>
+        <v>0.001026398735120893</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.908324859163258e-05</v>
+        <v>0.0008286423981189728</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0001047192999976687</v>
+        <v>0.0006596432067453861</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0001816324511310086</v>
+        <v>9.725481504574418e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>6.023060450388584e-06</v>
+        <v>0.0008706186199560761</v>
       </c>
       <c r="CJ5" t="n">
-        <v>4.865283699473366e-05</v>
+        <v>0.0006513812695629895</v>
       </c>
       <c r="CK5" t="n">
-        <v>2.934518124675378e-05</v>
+        <v>0.0008610494551248848</v>
       </c>
       <c r="CL5" t="n">
-        <v>6.790439329051878e-06</v>
+        <v>0.001171669573523104</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0002708450192585588</v>
+        <v>0.004287243820726871</v>
       </c>
       <c r="CN5" t="n">
-        <v>7.119507063180208e-05</v>
+        <v>4.798188456334174e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0001100421213777736</v>
+        <v>0.0006342242704704404</v>
       </c>
       <c r="CP5" t="n">
-        <v>8.211444946937263e-05</v>
+        <v>0.0004936327459290624</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0002301788772456348</v>
+        <v>0.001858156058005989</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0002312520373379812</v>
+        <v>0.001102905021980405</v>
       </c>
       <c r="CS5" t="n">
-        <v>4.745049955090508e-05</v>
+        <v>0.002265341579914093</v>
       </c>
       <c r="CT5" t="n">
-        <v>5.533984221983701e-07</v>
+        <v>0.002164189936593175</v>
       </c>
       <c r="CU5" t="n">
-        <v>2.911517731263302e-05</v>
+        <v>0.0001434894511476159</v>
       </c>
       <c r="CV5" t="n">
-        <v>7.066161197144538e-05</v>
+        <v>0.0009550638496875763</v>
       </c>
       <c r="CW5" t="n">
-        <v>3.235301846871153e-06</v>
+        <v>5.760892236139625e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>4.438883479451761e-05</v>
+        <v>0.002286696340888739</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0001096986306947656</v>
+        <v>0.001155734062194824</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0001034178858390078</v>
+        <v>0.0003760627587325871</v>
       </c>
       <c r="DA5" t="n">
-        <v>4.122723476029932e-05</v>
+        <v>0.00209845183417201</v>
       </c>
       <c r="DB5" t="n">
-        <v>4.441184864845127e-05</v>
+        <v>0.001605935394763947</v>
       </c>
       <c r="DC5" t="n">
-        <v>3.159677362418734e-05</v>
+        <v>0.002226197626441717</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.932323812070535e-06</v>
+        <v>0.00137995183467865</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0001573740446474403</v>
+        <v>0.001246475148946047</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0002569994539953768</v>
+        <v>0.008783532306551933</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0002976205723825842</v>
+        <v>0.005871074739843607</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.0002070461487164721</v>
+        <v>0.007142676971852779</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0002037425874732435</v>
+        <v>0.02055182121694088</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.649138357606716e-05</v>
+        <v>0.01584360003471375</v>
       </c>
       <c r="DK5" t="n">
-        <v>8.87707356014289e-05</v>
+        <v>0.00680256262421608</v>
       </c>
       <c r="DL5" t="n">
-        <v>1.509688263467979e-05</v>
+        <v>0.007008473854511976</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0001544094702694565</v>
+        <v>0.005457395687699318</v>
       </c>
       <c r="DN5" t="n">
-        <v>4.015812737634405e-05</v>
+        <v>0.001820147852413356</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0004490316205192357</v>
+        <v>0.006270482204854488</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0001033736989484169</v>
+        <v>0.002568185096606612</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0001330852537648752</v>
+        <v>0.003920009359717369</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0002447956067044288</v>
+        <v>0.001696927356533706</v>
       </c>
       <c r="DS5" t="n">
-        <v>9.341073746327311e-05</v>
+        <v>0.005280451383441687</v>
       </c>
       <c r="DT5" t="n">
-        <v>5.950580816715956e-05</v>
+        <v>0.001629346166737378</v>
       </c>
       <c r="DU5" t="n">
-        <v>2.654659874679055e-05</v>
+        <v>0.001232343027368188</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0001212896459037438</v>
+        <v>0.0008472602930851281</v>
       </c>
       <c r="DW5" t="n">
-        <v>9.999738722399343e-06</v>
+        <v>0.00279396865516901</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0001939907961059362</v>
+        <v>0.001145334215834737</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0001239843986695632</v>
+        <v>0.003548834938555956</v>
       </c>
       <c r="DZ5" t="n">
-        <v>8.132819857564755e-07</v>
+        <v>0.002662178361788392</v>
       </c>
       <c r="EA5" t="n">
-        <v>5.50318873138167e-05</v>
+        <v>0.002699506934732199</v>
       </c>
       <c r="EB5" t="n">
-        <v>8.931123011279851e-05</v>
+        <v>0.007013118360191584</v>
       </c>
       <c r="EC5" t="n">
-        <v>6.932718679308891e-05</v>
+        <v>8.648232324048877e-05</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0001641582639422268</v>
+        <v>0.003178931074216962</v>
       </c>
       <c r="EE5" t="n">
-        <v>8.471410183119588e-06</v>
+        <v>0.003439275547862053</v>
       </c>
       <c r="EF5" t="n">
-        <v>5.227209476288408e-05</v>
+        <v>0.001102469279430807</v>
       </c>
       <c r="EG5" t="n">
-        <v>6.044910333002917e-05</v>
+        <v>0.003201807150617242</v>
       </c>
       <c r="EH5" t="n">
-        <v>7.983636169228703e-05</v>
+        <v>0.0008000970119610429</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0001101384841604158</v>
+        <v>0.003721177577972412</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0001113837861339562</v>
+        <v>0.004651862662285566</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0001490547729190439</v>
+        <v>0.005775599274784327</v>
       </c>
       <c r="EL5" t="n">
-        <v>1.794308082025964e-05</v>
+        <v>0.000893615884706378</v>
       </c>
       <c r="EM5" t="n">
-        <v>1.316454017796787e-05</v>
+        <v>0.0005629102233797312</v>
       </c>
       <c r="EN5" t="n">
-        <v>2.833082908182405e-05</v>
+        <v>0.0005627143546007574</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0001469386188546196</v>
+        <v>0.003115400206297636</v>
       </c>
       <c r="EP5" t="n">
-        <v>9.080596646526828e-05</v>
+        <v>0.008885418996214867</v>
       </c>
       <c r="EQ5" t="n">
-        <v>3.000568540301174e-05</v>
+        <v>0.003143653739243746</v>
       </c>
       <c r="ER5" t="n">
-        <v>2.181864329031669e-05</v>
+        <v>0.006875031162053347</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.000149783372762613</v>
+        <v>0.00856395997107029</v>
       </c>
       <c r="ET5" t="n">
-        <v>2.39965484070126e-05</v>
+        <v>0.003585688769817352</v>
       </c>
       <c r="EU5" t="n">
-        <v>4.062986045028083e-05</v>
+        <v>0.00139964756090194</v>
       </c>
       <c r="EV5" t="n">
-        <v>5.014600174035877e-05</v>
+        <v>0.003269464708864689</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.997262643271824e-06</v>
+        <v>0.001395658007822931</v>
       </c>
       <c r="EX5" t="n">
-        <v>3.532414848450571e-05</v>
+        <v>0.001585435820743442</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.481327126384713e-05</v>
+        <v>0.0009839116828516126</v>
       </c>
       <c r="EZ5" t="n">
-        <v>6.038062565494329e-07</v>
+        <v>0.002541035413742065</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0001422589120920748</v>
+        <v>0.0003677954955492169</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0001151885808212683</v>
+        <v>0.001144164125435054</v>
       </c>
       <c r="FC5" t="n">
-        <v>3.411952638998628e-05</v>
+        <v>0.00166757230181247</v>
       </c>
       <c r="FD5" t="n">
-        <v>2.840388333424926e-05</v>
+        <v>0.0007152068428695202</v>
       </c>
       <c r="FE5" t="n">
-        <v>3.934550477424636e-05</v>
+        <v>0.002326896879822016</v>
       </c>
       <c r="FF5" t="n">
-        <v>1.04918281067512e-05</v>
+        <v>0.001204690313898027</v>
       </c>
       <c r="FG5" t="n">
-        <v>4.504749085754156e-05</v>
+        <v>0.002012471668422222</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.000233328843023628</v>
+        <v>0.004185403697192669</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0002610936935525388</v>
+        <v>0.000237189931795001</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.0001426653325324878</v>
+        <v>0.005947069730609655</v>
       </c>
       <c r="FK5" t="n">
-        <v>6.269778532441705e-05</v>
+        <v>0.007773139514029026</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0001469088165322319</v>
+        <v>0.002128914464265108</v>
       </c>
       <c r="FM5" t="n">
-        <v>5.811738446936943e-06</v>
+        <v>0.002848054282367229</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0001440136402379721</v>
+        <v>0.003948704339563847</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0001212770148413256</v>
+        <v>0.0001918471825774759</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0002617497812025249</v>
+        <v>0.0005453415215015411</v>
       </c>
       <c r="FQ5" t="n">
-        <v>7.776993879815564e-05</v>
+        <v>0.001204263535328209</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0001220212288899347</v>
+        <v>0.0005039462121203542</v>
       </c>
       <c r="FS5" t="n">
-        <v>5.713656719308347e-05</v>
+        <v>0.003946058452129364</v>
       </c>
       <c r="FT5" t="n">
-        <v>7.949963764986023e-05</v>
+        <v>0.002400677651166916</v>
       </c>
       <c r="FU5" t="n">
-        <v>2.241796391899697e-05</v>
+        <v>0.003222036408260465</v>
       </c>
       <c r="FV5" t="n">
-        <v>2.360213693464175e-05</v>
+        <v>0.004970859736204147</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0001844714133767411</v>
+        <v>0.003013169392943382</v>
       </c>
       <c r="FX5" t="n">
-        <v>5.607135244645178e-05</v>
+        <v>0.002604589331895113</v>
       </c>
       <c r="FY5" t="n">
-        <v>3.678926441352814e-05</v>
+        <v>0.005731044337153435</v>
       </c>
       <c r="FZ5" t="n">
-        <v>9.123919880948961e-05</v>
+        <v>0.002487005898728967</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.297654307563789e-06</v>
+        <v>0.006777958944439888</v>
       </c>
       <c r="GB5" t="n">
-        <v>6.870606739539653e-05</v>
+        <v>0.008693311363458633</v>
       </c>
       <c r="GC5" t="n">
-        <v>9.286589920520782e-05</v>
+        <v>0.003299199976027012</v>
       </c>
       <c r="GD5" t="n">
-        <v>5.539869016502053e-05</v>
+        <v>0.0001344820484519005</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0001162741100415587</v>
+        <v>0.003711967263370752</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0001103618778870441</v>
+        <v>0.0009453764650970697</v>
       </c>
       <c r="GG5" t="n">
-        <v>2.471723564667627e-05</v>
+        <v>0.0007005901425145566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.709219582554839e-14</v>
+        <v>9.05470143308662e-10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.16905617131291e-13</v>
+        <v>8.406027873775201e-09</v>
       </c>
       <c r="C6" t="n">
-        <v>6.73150500184877e-14</v>
+        <v>6.643141592377333e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.394910050377649e-14</v>
+        <v>3.992866481894453e-09</v>
       </c>
       <c r="E6" t="n">
-        <v>1.691409429779422e-14</v>
+        <v>5.558462135013542e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>5.732257777577325e-15</v>
+        <v>1.593295806401329e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>1.599964769233384e-14</v>
+        <v>1.366345259157242e-09</v>
       </c>
       <c r="H6" t="n">
-        <v>3.256066816452637e-14</v>
+        <v>2.139918908738991e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>1.353997751592229e-14</v>
+        <v>1.254833570385472e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>7.028895559124324e-14</v>
+        <v>3.28144178496359e-09</v>
       </c>
       <c r="K6" t="n">
-        <v>1.593642752484303e-13</v>
+        <v>4.125370267615835e-09</v>
       </c>
       <c r="L6" t="n">
-        <v>4.801567875397338e-14</v>
+        <v>5.036145389603064e-10</v>
       </c>
       <c r="M6" t="n">
-        <v>9.845168978022192e-14</v>
+        <v>4.128227981681221e-09</v>
       </c>
       <c r="N6" t="n">
-        <v>1.538863369956837e-14</v>
+        <v>3.87061049877957e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>4.658665963305601e-14</v>
+        <v>1.216540468362837e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>7.64928180204457e-15</v>
+        <v>5.71525160530939e-10</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.660693657929703e-15</v>
+        <v>1.551167194691061e-09</v>
       </c>
       <c r="R6" t="n">
-        <v>2.7326370468728e-14</v>
+        <v>1.376863290047936e-09</v>
       </c>
       <c r="S6" t="n">
-        <v>3.652587333611255e-15</v>
+        <v>1.470688015814403e-10</v>
       </c>
       <c r="T6" t="n">
-        <v>7.378334596942759e-15</v>
+        <v>1.147875017259992e-09</v>
       </c>
       <c r="U6" t="n">
-        <v>6.59888640854988e-16</v>
+        <v>3.514828872397402e-09</v>
       </c>
       <c r="V6" t="n">
-        <v>3.742336911823248e-14</v>
+        <v>1.42874198583165e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>2.100934104964057e-14</v>
+        <v>1.634572477371421e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>1.847067996869987e-14</v>
+        <v>2.462434256500501e-09</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.695065407896336e-15</v>
+        <v>1.869540966481509e-09</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.380602548245718e-14</v>
+        <v>8.463200695807416e-10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.617549003811794e-14</v>
+        <v>3.8020286918794e-10</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.555951359989756e-14</v>
+        <v>1.9704766707207e-09</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.473712271062808e-14</v>
+        <v>1.431079477143271e-09</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.530222243545468e-14</v>
+        <v>1.969419294312047e-09</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.263554834561261e-15</v>
+        <v>1.859245202240345e-09</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.19773877245199e-14</v>
+        <v>7.173417415629046e-10</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.72872851558932e-14</v>
+        <v>4.787686691543058e-09</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.822742887142408e-14</v>
+        <v>4.52569925979418e-11</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.784687899107935e-14</v>
+        <v>2.859655179321408e-09</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.530248010895395e-14</v>
+        <v>1.462519549910724e-10</v>
       </c>
       <c r="AK6" t="n">
-        <v>4.628730971916687e-15</v>
+        <v>2.481849170621331e-09</v>
       </c>
       <c r="AL6" t="n">
-        <v>3.424432233004732e-14</v>
+        <v>1.174045416441061e-09</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.064363457466353e-14</v>
+        <v>4.950135301662328e-10</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.565495398719581e-15</v>
+        <v>5.500179200979005e-10</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.621780611009687e-14</v>
+        <v>3.161831685360994e-09</v>
       </c>
       <c r="AP6" t="n">
-        <v>4.935487341896621e-16</v>
+        <v>1.897266121986263e-09</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.292260043617374e-14</v>
+        <v>9.597335148825437e-10</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.084936871315623e-15</v>
+        <v>3.340873355739404e-09</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.58391197022361e-14</v>
+        <v>9.607614703810441e-11</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.917123550838548e-15</v>
+        <v>7.541537394573083e-10</v>
       </c>
       <c r="AU6" t="n">
-        <v>5.59685320821162e-14</v>
+        <v>4.937183550879354e-09</v>
       </c>
       <c r="AV6" t="n">
-        <v>6.40546643504436e-16</v>
+        <v>7.806705282220605e-10</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.057110261694024e-14</v>
+        <v>5.117040569047049e-09</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.177865127617106e-14</v>
+        <v>4.299022027254296e-09</v>
       </c>
       <c r="AY6" t="n">
-        <v>9.905069453986122e-15</v>
+        <v>1.3734235082552e-08</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.075739956980925e-14</v>
+        <v>1.86626558651426e-09</v>
       </c>
       <c r="BA6" t="n">
-        <v>4.230067630808104e-14</v>
+        <v>8.629120751280084e-10</v>
       </c>
       <c r="BB6" t="n">
-        <v>5.241997225288904e-15</v>
+        <v>1.312884245763257e-10</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.43300584785185e-14</v>
+        <v>7.119536071797938e-10</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.46927551248509e-14</v>
+        <v>1.684721362416042e-09</v>
       </c>
       <c r="BE6" t="n">
-        <v>9.790825885225198e-15</v>
+        <v>1.158734774797665e-09</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.281810385102018e-14</v>
+        <v>2.831430867544782e-09</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.05683275252468e-16</v>
+        <v>3.808492188284163e-09</v>
       </c>
       <c r="BH6" t="n">
-        <v>6.126802082166705e-14</v>
+        <v>1.321818765553928e-10</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.494187125373678e-14</v>
+        <v>1.201570953845987e-09</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.92423981344161e-14</v>
+        <v>9.118556465459449e-10</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.671901922190976e-14</v>
+        <v>2.468274473699239e-09</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.151950408705745e-15</v>
+        <v>9.939196132791039e-10</v>
       </c>
       <c r="BM6" t="n">
-        <v>9.312482662988172e-15</v>
+        <v>8.014094388109072e-10</v>
       </c>
       <c r="BN6" t="n">
-        <v>5.682473416102453e-15</v>
+        <v>1.244910396991372e-09</v>
       </c>
       <c r="BO6" t="n">
-        <v>3.017040556187872e-14</v>
+        <v>2.064061144224638e-10</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.343655631164513e-14</v>
+        <v>8.528426298504144e-10</v>
       </c>
       <c r="BQ6" t="n">
-        <v>6.61224411812808e-14</v>
+        <v>1.95571092653779e-09</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.120474138617677e-14</v>
+        <v>9.457465921514085e-10</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.796401196470666e-14</v>
+        <v>9.537730605302386e-10</v>
       </c>
       <c r="BT6" t="n">
-        <v>1.496638608129621e-14</v>
+        <v>5.17423714985199e-10</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.385114438645857e-15</v>
+        <v>5.77225378606272e-10</v>
       </c>
       <c r="BV6" t="n">
-        <v>6.576074456027606e-14</v>
+        <v>1.471139654540821e-09</v>
       </c>
       <c r="BW6" t="n">
-        <v>6.406703103147351e-15</v>
+        <v>1.676760952307177e-09</v>
       </c>
       <c r="BX6" t="n">
-        <v>2.024985573374858e-14</v>
+        <v>1.15233067532472e-09</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.93909084210582e-14</v>
+        <v>3.641431378653692e-09</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.344120585097591e-15</v>
+        <v>6.11866823874152e-09</v>
       </c>
       <c r="CA6" t="n">
-        <v>4.132393805264664e-15</v>
+        <v>8.40843894511778e-10</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.452312848231705e-14</v>
+        <v>1.457239884317119e-09</v>
       </c>
       <c r="CC6" t="n">
-        <v>5.854445244834073e-15</v>
+        <v>1.28794563902801e-09</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.185452577100396e-15</v>
+        <v>5.137917868935915e-12</v>
       </c>
       <c r="CE6" t="n">
-        <v>2.949794949318532e-14</v>
+        <v>1.41505041018064e-09</v>
       </c>
       <c r="CF6" t="n">
-        <v>1.181008551587662e-14</v>
+        <v>1.850715414253301e-11</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.856195793316189e-14</v>
+        <v>3.513486446227176e-10</v>
       </c>
       <c r="CH6" t="n">
-        <v>1.177676832192932e-14</v>
+        <v>1.042162467435048e-09</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.659929958514484e-14</v>
+        <v>2.263324194728966e-09</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.178101280402801e-14</v>
+        <v>5.103129030459286e-10</v>
       </c>
       <c r="CK6" t="n">
-        <v>8.184049277029995e-15</v>
+        <v>7.996023287937248e-10</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.281928461494865e-15</v>
+        <v>2.089638184710196e-11</v>
       </c>
       <c r="CM6" t="n">
-        <v>7.472811804846557e-15</v>
+        <v>1.288338546956425e-09</v>
       </c>
       <c r="CN6" t="n">
-        <v>3.230338698899556e-14</v>
+        <v>4.060266567407211e-10</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.632532847242133e-14</v>
+        <v>1.057892440314845e-09</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.097178039611083e-14</v>
+        <v>4.709648226963736e-09</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.617947956329951e-14</v>
+        <v>2.432016588116426e-09</v>
       </c>
       <c r="CR6" t="n">
-        <v>5.572936385912948e-14</v>
+        <v>1.918475378559492e-10</v>
       </c>
       <c r="CS6" t="n">
-        <v>8.571807407755858e-15</v>
+        <v>5.106250977604532e-10</v>
       </c>
       <c r="CT6" t="n">
-        <v>3.639712771626169e-14</v>
+        <v>3.964540917777981e-10</v>
       </c>
       <c r="CU6" t="n">
-        <v>4.361722978239377e-14</v>
+        <v>1.383273495747517e-09</v>
       </c>
       <c r="CV6" t="n">
-        <v>7.288752392441145e-16</v>
+        <v>3.979538643061886e-10</v>
       </c>
       <c r="CW6" t="n">
-        <v>2.177972090330015e-14</v>
+        <v>1.200128774136999e-09</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.050013551042069e-14</v>
+        <v>8.177473281856251e-11</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.380307441966894e-14</v>
+        <v>9.218386054499206e-10</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.41236762147214e-15</v>
+        <v>7.804530910426877e-10</v>
       </c>
       <c r="DA6" t="n">
-        <v>3.226710602676581e-15</v>
+        <v>3.180625762766454e-09</v>
       </c>
       <c r="DB6" t="n">
-        <v>9.631033966758622e-15</v>
+        <v>1.109934477661056e-09</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.274102410085321e-16</v>
+        <v>9.031042580431858e-10</v>
       </c>
       <c r="DD6" t="n">
-        <v>9.608086361909845e-16</v>
+        <v>2.055760561781028e-10</v>
       </c>
       <c r="DE6" t="n">
-        <v>3.568541675266074e-14</v>
+        <v>1.849550512744713e-10</v>
       </c>
       <c r="DF6" t="n">
-        <v>6.421390654452741e-14</v>
+        <v>1.607168620409993e-09</v>
       </c>
       <c r="DG6" t="n">
-        <v>2.15955623880399e-14</v>
+        <v>3.376819490696903e-09</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.039324842280667e-14</v>
+        <v>1.234901070290562e-09</v>
       </c>
       <c r="DI6" t="n">
-        <v>1.799599423472908e-14</v>
+        <v>2.485124328543975e-10</v>
       </c>
       <c r="DJ6" t="n">
-        <v>3.887807959547301e-15</v>
+        <v>2.835033319215086e-09</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.582908066774524e-14</v>
+        <v>8.870809642402833e-11</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.675958980701758e-15</v>
+        <v>8.078866464700241e-09</v>
       </c>
       <c r="DM6" t="n">
-        <v>4.363096526866644e-14</v>
+        <v>2.184672220906236e-09</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.837048444136916e-14</v>
+        <v>1.189362497377999e-10</v>
       </c>
       <c r="DO6" t="n">
-        <v>4.464412509379984e-14</v>
+        <v>9.334204520428102e-10</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.211154369477148e-14</v>
+        <v>1.446102126934079e-09</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.006142411275274e-14</v>
+        <v>3.130953496466304e-09</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.382935276982456e-14</v>
+        <v>1.545819028336837e-10</v>
       </c>
       <c r="DS6" t="n">
-        <v>2.306719912466542e-14</v>
+        <v>2.807890808753655e-09</v>
       </c>
       <c r="DT6" t="n">
-        <v>7.608327759044825e-15</v>
+        <v>7.981237892806803e-11</v>
       </c>
       <c r="DU6" t="n">
-        <v>2.898966196219696e-14</v>
+        <v>1.606661470532345e-09</v>
       </c>
       <c r="DV6" t="n">
-        <v>2.483659843543692e-14</v>
+        <v>7.628754572497343e-11</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.846272632932515e-14</v>
+        <v>1.39802991405702e-09</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.098954080746555e-14</v>
+        <v>7.708759741653637e-10</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.025321015970301e-14</v>
+        <v>1.462336474133963e-09</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.122884134307535e-14</v>
+        <v>1.022420259566559e-09</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.996247778353593e-14</v>
+        <v>1.313897657340135e-09</v>
       </c>
       <c r="EB6" t="n">
-        <v>1.7755579179244e-14</v>
+        <v>3.433075379533079e-09</v>
       </c>
       <c r="EC6" t="n">
-        <v>3.319101314321407e-14</v>
+        <v>1.559176121546102e-10</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.048616437350537e-14</v>
+        <v>1.017280037984847e-09</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.637699240000616e-14</v>
+        <v>1.952960904105794e-09</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.561174726007284e-14</v>
+        <v>1.317389530797186e-10</v>
       </c>
       <c r="EG6" t="n">
-        <v>6.622453236834747e-14</v>
+        <v>1.097767321489584e-09</v>
       </c>
       <c r="EH6" t="n">
-        <v>3.118220335803293e-14</v>
+        <v>1.872034471883666e-11</v>
       </c>
       <c r="EI6" t="n">
-        <v>3.010671546050878e-14</v>
+        <v>1.102628544025208e-10</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.070852619226915e-15</v>
+        <v>1.195835430678471e-09</v>
       </c>
       <c r="EK6" t="n">
-        <v>6.1950456632545e-15</v>
+        <v>2.564503720492439e-09</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.189206305857778e-14</v>
+        <v>9.771603526331774e-10</v>
       </c>
       <c r="EM6" t="n">
-        <v>8.4429669202149e-15</v>
+        <v>7.42302885825552e-10</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.112245425293338e-15</v>
+        <v>3.421078698107038e-10</v>
       </c>
       <c r="EO6" t="n">
-        <v>1.875749379496965e-14</v>
+        <v>2.034112878135375e-09</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.702513523498157e-14</v>
+        <v>2.743200111510191e-09</v>
       </c>
       <c r="EQ6" t="n">
-        <v>4.170881711838478e-14</v>
+        <v>1.513175806877598e-09</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.857428801629177e-15</v>
+        <v>5.152401838515175e-10</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.126885856763543e-14</v>
+        <v>2.275206911761529e-09</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.6099241826272e-14</v>
+        <v>1.349673262041051e-09</v>
       </c>
       <c r="EU6" t="n">
-        <v>3.952514585157246e-14</v>
+        <v>2.62471600009917e-09</v>
       </c>
       <c r="EV6" t="n">
-        <v>5.158865600197104e-15</v>
+        <v>5.137163139323775e-09</v>
       </c>
       <c r="EW6" t="n">
-        <v>6.051028462881114e-15</v>
+        <v>1.002443461572966e-09</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.899175769719177e-15</v>
+        <v>3.239821744216442e-10</v>
       </c>
       <c r="EY6" t="n">
-        <v>2.197240734627334e-14</v>
+        <v>6.341246971963699e-10</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.285765690152516e-14</v>
+        <v>6.798574481159392e-10</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.686449882466658e-14</v>
+        <v>5.208233844200549e-10</v>
       </c>
       <c r="FB6" t="n">
-        <v>1.104208984820533e-15</v>
+        <v>1.433813734408318e-09</v>
       </c>
       <c r="FC6" t="n">
-        <v>1.263678797833092e-14</v>
+        <v>1.864950860408499e-09</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.51014183796816e-14</v>
+        <v>7.636929422183414e-10</v>
       </c>
       <c r="FE6" t="n">
-        <v>5.999092637720216e-15</v>
+        <v>3.951697025161849e-10</v>
       </c>
       <c r="FF6" t="n">
-        <v>4.706757529435385e-15</v>
+        <v>3.987141172778763e-10</v>
       </c>
       <c r="FG6" t="n">
-        <v>7.969007940512862e-15</v>
+        <v>6.532884649912418e-11</v>
       </c>
       <c r="FH6" t="n">
-        <v>3.574040951972828e-14</v>
+        <v>5.366491251379557e-09</v>
       </c>
       <c r="FI6" t="n">
-        <v>7.636873446993653e-14</v>
+        <v>8.846255949990223e-10</v>
       </c>
       <c r="FJ6" t="n">
-        <v>6.017481723005107e-15</v>
+        <v>4.508982520690097e-09</v>
       </c>
       <c r="FK6" t="n">
-        <v>2.817875327607716e-14</v>
+        <v>6.318687351125618e-09</v>
       </c>
       <c r="FL6" t="n">
-        <v>3.838509032654501e-14</v>
+        <v>3.817899774105626e-09</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.190018441047606e-14</v>
+        <v>6.178739742068728e-10</v>
       </c>
       <c r="FN6" t="n">
-        <v>1.650973262723628e-14</v>
+        <v>1.842293761988856e-09</v>
       </c>
       <c r="FO6" t="n">
-        <v>1.124160274145868e-14</v>
+        <v>2.865744530566872e-09</v>
       </c>
       <c r="FP6" t="n">
-        <v>2.969181839415289e-14</v>
+        <v>2.70162003879193e-10</v>
       </c>
       <c r="FQ6" t="n">
-        <v>2.80441766814174e-14</v>
+        <v>5.411155967749437e-09</v>
       </c>
       <c r="FR6" t="n">
-        <v>3.103851268886071e-14</v>
+        <v>5.946938497203291e-09</v>
       </c>
       <c r="FS6" t="n">
-        <v>4.092814073221838e-15</v>
+        <v>6.780878969436799e-09</v>
       </c>
       <c r="FT6" t="n">
-        <v>2.337310507356631e-14</v>
+        <v>4.18601597829138e-09</v>
       </c>
       <c r="FU6" t="n">
-        <v>6.163738478491033e-15</v>
+        <v>4.620540394739692e-09</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.424139854779669e-14</v>
+        <v>2.593821268881413e-10</v>
       </c>
       <c r="FW6" t="n">
-        <v>6.133463149263912e-14</v>
+        <v>9.593273397889845e-11</v>
       </c>
       <c r="FX6" t="n">
-        <v>8.884762364843798e-14</v>
+        <v>3.422540473252411e-09</v>
       </c>
       <c r="FY6" t="n">
-        <v>3.419486915845482e-14</v>
+        <v>1.778583391676136e-10</v>
       </c>
       <c r="FZ6" t="n">
-        <v>1.774001918400294e-14</v>
+        <v>1.122762549599088e-09</v>
       </c>
       <c r="GA6" t="n">
-        <v>9.123399498172594e-15</v>
+        <v>1.364673263282157e-09</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.009913959782853e-14</v>
+        <v>2.267647625231461e-09</v>
       </c>
       <c r="GC6" t="n">
-        <v>3.138321444081174e-14</v>
+        <v>5.885124387816631e-09</v>
       </c>
       <c r="GD6" t="n">
-        <v>3.725015088051897e-14</v>
+        <v>9.80498737757074e-11</v>
       </c>
       <c r="GE6" t="n">
-        <v>8.208445519976813e-15</v>
+        <v>2.946110022605808e-11</v>
       </c>
       <c r="GF6" t="n">
-        <v>5.565257185213141e-15</v>
+        <v>1.572195262866671e-09</v>
       </c>
       <c r="GG6" t="n">
-        <v>6.182626296775268e-14</v>
+        <v>8.161858966460045e-10</v>
       </c>
     </row>
     <row r="7">
